--- a/Univ/template/7isab_Template.xlsx
+++ b/Univ/template/7isab_Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\habib\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\habib\source\repos\Univpp\Univ\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -450,15 +450,6 @@
     <xf numFmtId="39" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="39" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="39" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="39" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -467,6 +458,12 @@
     <xf numFmtId="39" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -474,6 +471,81 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="39" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -502,78 +574,6 @@
     </xf>
     <xf numFmtId="39" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -15048,56 +15048,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:26" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="Q1" s="68" t="s">
+      <c r="Q1" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
-      <c r="W1" s="68"/>
-      <c r="X1" s="68"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
     </row>
     <row r="3" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="46" t="s">
+      <c r="F3" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="48"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="47"/>
       <c r="K3" s="7"/>
-      <c r="L3" s="46" t="s">
+      <c r="L3" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="47"/>
-      <c r="S3" s="47"/>
-      <c r="T3" s="47"/>
-      <c r="U3" s="47"/>
-      <c r="V3" s="47"/>
-      <c r="W3" s="47"/>
-      <c r="X3" s="47"/>
-      <c r="Y3" s="47"/>
-      <c r="Z3" s="48"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="46"/>
+      <c r="S3" s="46"/>
+      <c r="T3" s="46"/>
+      <c r="U3" s="46"/>
+      <c r="V3" s="46"/>
+      <c r="W3" s="46"/>
+      <c r="X3" s="46"/>
+      <c r="Y3" s="46"/>
+      <c r="Z3" s="47"/>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="48"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="47"/>
       <c r="E4" s="7"/>
       <c r="F4" s="36"/>
       <c r="G4" s="36"/>
@@ -15134,80 +15134,80 @@
       <c r="Z4" s="36"/>
     </row>
     <row r="5" spans="2:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="75">
+      <c r="B5" s="59">
         <v>268.39299999999997</v>
       </c>
-      <c r="C5" s="76"/>
-      <c r="D5" s="77"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="61"/>
       <c r="E5" s="7"/>
-      <c r="F5" s="59" t="s">
+      <c r="F5" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="59" t="s">
+      <c r="G5" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="61" t="s">
+      <c r="H5" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="62"/>
-      <c r="J5" s="63"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="65"/>
       <c r="K5" s="32"/>
-      <c r="L5" s="64" t="s">
+      <c r="L5" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="M5" s="59" t="s">
+      <c r="M5" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="N5" s="59" t="s">
+      <c r="N5" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="O5" s="70" t="s">
+      <c r="O5" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="73" t="s">
+      <c r="P5" s="49"/>
+      <c r="Q5" s="50"/>
+      <c r="R5" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="S5" s="70" t="s">
+      <c r="S5" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="T5" s="71"/>
-      <c r="U5" s="71"/>
-      <c r="V5" s="71"/>
-      <c r="W5" s="71"/>
-      <c r="X5" s="72"/>
-      <c r="Y5" s="78" t="s">
+      <c r="T5" s="49"/>
+      <c r="U5" s="49"/>
+      <c r="V5" s="49"/>
+      <c r="W5" s="49"/>
+      <c r="X5" s="50"/>
+      <c r="Y5" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="Z5" s="79"/>
+      <c r="Z5" s="52"/>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B6" s="35"/>
       <c r="C6" s="34"/>
       <c r="D6" s="33"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
       <c r="H6" s="31"/>
       <c r="I6" s="30"/>
       <c r="J6" s="29"/>
       <c r="K6" s="32"/>
-      <c r="L6" s="65"/>
-      <c r="M6" s="60"/>
-      <c r="N6" s="60"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
       <c r="O6" s="31"/>
       <c r="P6" s="30"/>
       <c r="Q6" s="29"/>
-      <c r="R6" s="74"/>
+      <c r="R6" s="58"/>
       <c r="S6" s="31"/>
       <c r="T6" s="30"/>
       <c r="U6" s="30"/>
       <c r="V6" s="30"/>
       <c r="W6" s="30"/>
       <c r="X6" s="29"/>
-      <c r="Y6" s="80"/>
-      <c r="Z6" s="81"/>
+      <c r="Y6" s="53"/>
+      <c r="Z6" s="54"/>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B7" s="10"/>
@@ -15237,11 +15237,11 @@
       <c r="Z7" s="28"/>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -15270,110 +15270,110 @@
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
-      <c r="L9" s="66"/>
-      <c r="M9" s="66"/>
-      <c r="N9" s="66"/>
-      <c r="O9" s="66"/>
-      <c r="P9" s="66"/>
-      <c r="Q9" s="66"/>
-      <c r="R9" s="66"/>
-      <c r="S9" s="66"/>
-      <c r="T9" s="66"/>
-      <c r="U9" s="66"/>
-      <c r="V9" s="66"/>
-      <c r="W9" s="66"/>
-      <c r="X9" s="66"/>
-      <c r="Y9" s="66"/>
-      <c r="Z9" s="66"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="68"/>
+      <c r="N9" s="68"/>
+      <c r="O9" s="68"/>
+      <c r="P9" s="68"/>
+      <c r="Q9" s="68"/>
+      <c r="R9" s="68"/>
+      <c r="S9" s="68"/>
+      <c r="T9" s="68"/>
+      <c r="U9" s="68"/>
+      <c r="V9" s="68"/>
+      <c r="W9" s="68"/>
+      <c r="X9" s="68"/>
+      <c r="Y9" s="68"/>
+      <c r="Z9" s="68"/>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="66"/>
-      <c r="L10" s="66"/>
-      <c r="M10" s="66"/>
-      <c r="N10" s="66"/>
-      <c r="O10" s="66"/>
-      <c r="P10" s="66"/>
-      <c r="Q10" s="66"/>
-      <c r="R10" s="66"/>
-      <c r="S10" s="66"/>
-      <c r="T10" s="66"/>
-      <c r="U10" s="66"/>
-      <c r="V10" s="66"/>
-      <c r="W10" s="66"/>
-      <c r="X10" s="66"/>
-      <c r="Y10" s="66"/>
-      <c r="Z10" s="66"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="68"/>
+      <c r="M10" s="68"/>
+      <c r="N10" s="68"/>
+      <c r="O10" s="68"/>
+      <c r="P10" s="68"/>
+      <c r="Q10" s="68"/>
+      <c r="R10" s="68"/>
+      <c r="S10" s="68"/>
+      <c r="T10" s="68"/>
+      <c r="U10" s="68"/>
+      <c r="V10" s="68"/>
+      <c r="W10" s="68"/>
+      <c r="X10" s="68"/>
+      <c r="Y10" s="68"/>
+      <c r="Z10" s="68"/>
     </row>
     <row r="11" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B11" s="7"/>
-      <c r="C11" s="58" t="s">
+      <c r="C11" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="58"/>
+      <c r="D11" s="62"/>
       <c r="E11" s="7"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="67"/>
-      <c r="L11" s="67"/>
-      <c r="M11" s="67"/>
-      <c r="N11" s="67"/>
-      <c r="O11" s="67"/>
-      <c r="P11" s="67"/>
-      <c r="Q11" s="67"/>
-      <c r="R11" s="67"/>
-      <c r="S11" s="67"/>
-      <c r="T11" s="67"/>
-      <c r="U11" s="67"/>
-      <c r="V11" s="67"/>
-      <c r="W11" s="67"/>
-      <c r="X11" s="67"/>
-      <c r="Y11" s="67"/>
-      <c r="Z11" s="67"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="69"/>
+      <c r="L11" s="69"/>
+      <c r="M11" s="69"/>
+      <c r="N11" s="69"/>
+      <c r="O11" s="69"/>
+      <c r="P11" s="69"/>
+      <c r="Q11" s="69"/>
+      <c r="R11" s="69"/>
+      <c r="S11" s="69"/>
+      <c r="T11" s="69"/>
+      <c r="U11" s="69"/>
+      <c r="V11" s="69"/>
+      <c r="W11" s="69"/>
+      <c r="X11" s="69"/>
+      <c r="Y11" s="69"/>
+      <c r="Z11" s="69"/>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="67"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="67"/>
-      <c r="M12" s="67"/>
-      <c r="N12" s="67"/>
-      <c r="O12" s="67"/>
-      <c r="P12" s="67"/>
-      <c r="Q12" s="67"/>
-      <c r="R12" s="67"/>
-      <c r="S12" s="67"/>
-      <c r="T12" s="67"/>
-      <c r="U12" s="67"/>
-      <c r="V12" s="67"/>
-      <c r="W12" s="67"/>
-      <c r="X12" s="67"/>
-      <c r="Y12" s="67"/>
-      <c r="Z12" s="67"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="69"/>
+      <c r="O12" s="69"/>
+      <c r="P12" s="69"/>
+      <c r="Q12" s="69"/>
+      <c r="R12" s="69"/>
+      <c r="S12" s="69"/>
+      <c r="T12" s="69"/>
+      <c r="U12" s="69"/>
+      <c r="V12" s="69"/>
+      <c r="W12" s="69"/>
+      <c r="X12" s="69"/>
+      <c r="Y12" s="69"/>
+      <c r="Z12" s="69"/>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B13" s="7"/>
@@ -15458,10 +15458,10 @@
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B16" s="7"/>
-      <c r="C16" s="58" t="s">
+      <c r="C16" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="58"/>
+      <c r="D16" s="62"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
@@ -15513,37 +15513,37 @@
       <c r="Z17" s="7"/>
     </row>
     <row r="18" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="46" t="s">
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="46" t="s">
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="N18" s="47"/>
-      <c r="O18" s="47"/>
-      <c r="P18" s="47"/>
-      <c r="Q18" s="47"/>
-      <c r="R18" s="47"/>
-      <c r="S18" s="47"/>
-      <c r="T18" s="47"/>
-      <c r="U18" s="47"/>
-      <c r="V18" s="47"/>
-      <c r="W18" s="47"/>
-      <c r="X18" s="47"/>
-      <c r="Y18" s="47"/>
-      <c r="Z18" s="48"/>
+      <c r="N18" s="46"/>
+      <c r="O18" s="46"/>
+      <c r="P18" s="46"/>
+      <c r="Q18" s="46"/>
+      <c r="R18" s="46"/>
+      <c r="S18" s="46"/>
+      <c r="T18" s="46"/>
+      <c r="U18" s="46"/>
+      <c r="V18" s="46"/>
+      <c r="W18" s="46"/>
+      <c r="X18" s="46"/>
+      <c r="Y18" s="46"/>
+      <c r="Z18" s="47"/>
     </row>
     <row r="19" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B19" s="17"/>
@@ -15586,12 +15586,12 @@
         <v>8</v>
       </c>
       <c r="F20" s="9"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="45"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="42"/>
       <c r="M20" s="11"/>
       <c r="N20" s="10"/>
       <c r="O20" s="10"/>
@@ -15621,12 +15621,12 @@
         <v>8</v>
       </c>
       <c r="F21" s="9"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="45"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="42"/>
       <c r="M21" s="11"/>
       <c r="N21" s="10"/>
       <c r="O21" s="10"/>
@@ -15656,12 +15656,12 @@
         <v>8</v>
       </c>
       <c r="F22" s="9"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="45"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="42"/>
       <c r="M22" s="11"/>
       <c r="N22" s="10"/>
       <c r="O22" s="10"/>
@@ -15691,12 +15691,12 @@
         <v>8</v>
       </c>
       <c r="F23" s="9"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="42"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="71"/>
+      <c r="I23" s="71"/>
+      <c r="J23" s="71"/>
+      <c r="K23" s="71"/>
+      <c r="L23" s="72"/>
       <c r="M23" s="11"/>
       <c r="N23" s="10"/>
       <c r="O23" s="10"/>
@@ -15726,14 +15726,14 @@
         <v>8</v>
       </c>
       <c r="F24" s="9"/>
-      <c r="G24" s="43" t="s">
+      <c r="G24" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="H24" s="44"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="44"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="45"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="42"/>
       <c r="M24" s="11"/>
       <c r="N24" s="10"/>
       <c r="O24" s="10"/>
@@ -15763,12 +15763,12 @@
         <v>8</v>
       </c>
       <c r="F25" s="9"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="42"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="71"/>
+      <c r="I25" s="71"/>
+      <c r="J25" s="71"/>
+      <c r="K25" s="71"/>
+      <c r="L25" s="72"/>
       <c r="M25" s="11"/>
       <c r="N25" s="10"/>
       <c r="O25" s="10"/>
@@ -15798,12 +15798,12 @@
         <v>8</v>
       </c>
       <c r="F26" s="9"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="41"/>
-      <c r="L26" s="42"/>
+      <c r="G26" s="70"/>
+      <c r="H26" s="71"/>
+      <c r="I26" s="71"/>
+      <c r="J26" s="71"/>
+      <c r="K26" s="71"/>
+      <c r="L26" s="72"/>
       <c r="M26" s="11"/>
       <c r="N26" s="10"/>
       <c r="O26" s="10"/>
@@ -15833,12 +15833,12 @@
         <v>8</v>
       </c>
       <c r="F27" s="9"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="41"/>
-      <c r="K27" s="41"/>
-      <c r="L27" s="42"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="71"/>
+      <c r="I27" s="71"/>
+      <c r="J27" s="71"/>
+      <c r="K27" s="71"/>
+      <c r="L27" s="72"/>
       <c r="M27" s="11"/>
       <c r="N27" s="10"/>
       <c r="O27" s="10"/>
@@ -15868,12 +15868,12 @@
         <v>8</v>
       </c>
       <c r="F28" s="9"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="44"/>
-      <c r="K28" s="44"/>
-      <c r="L28" s="45"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="42"/>
       <c r="M28" s="11"/>
       <c r="N28" s="10"/>
       <c r="O28" s="10"/>
@@ -15903,12 +15903,12 @@
         <v>8</v>
       </c>
       <c r="F29" s="9"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="44"/>
-      <c r="L29" s="45"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="42"/>
       <c r="M29" s="11"/>
       <c r="N29" s="10"/>
       <c r="O29" s="10"/>
@@ -15938,12 +15938,12 @@
         <v>8</v>
       </c>
       <c r="F30" s="9"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="44"/>
-      <c r="J30" s="44"/>
-      <c r="K30" s="44"/>
-      <c r="L30" s="45"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="42"/>
       <c r="M30" s="11"/>
       <c r="N30" s="10"/>
       <c r="O30" s="10"/>
@@ -15987,31 +15987,31 @@
       <c r="Z31" s="9"/>
     </row>
     <row r="32" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B32" s="46"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="55"/>
-      <c r="H32" s="56"/>
-      <c r="I32" s="56"/>
-      <c r="J32" s="56"/>
-      <c r="K32" s="56"/>
-      <c r="L32" s="57"/>
-      <c r="M32" s="46"/>
-      <c r="N32" s="47"/>
-      <c r="O32" s="47"/>
-      <c r="P32" s="47"/>
-      <c r="Q32" s="47"/>
-      <c r="R32" s="47"/>
-      <c r="S32" s="47"/>
-      <c r="T32" s="47"/>
-      <c r="U32" s="47"/>
-      <c r="V32" s="47"/>
-      <c r="W32" s="47"/>
-      <c r="X32" s="47"/>
-      <c r="Y32" s="47"/>
-      <c r="Z32" s="48"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="79"/>
+      <c r="H32" s="80"/>
+      <c r="I32" s="80"/>
+      <c r="J32" s="80"/>
+      <c r="K32" s="80"/>
+      <c r="L32" s="81"/>
+      <c r="M32" s="45"/>
+      <c r="N32" s="46"/>
+      <c r="O32" s="46"/>
+      <c r="P32" s="46"/>
+      <c r="Q32" s="46"/>
+      <c r="R32" s="46"/>
+      <c r="S32" s="46"/>
+      <c r="T32" s="46"/>
+      <c r="U32" s="46"/>
+      <c r="V32" s="46"/>
+      <c r="W32" s="46"/>
+      <c r="X32" s="46"/>
+      <c r="Y32" s="46"/>
+      <c r="Z32" s="47"/>
     </row>
     <row r="33" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B33" s="14" t="s">
@@ -16070,62 +16070,62 @@
       <c r="Z34" s="7"/>
     </row>
     <row r="35" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B35" s="46" t="s">
+      <c r="B35" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="47"/>
-      <c r="D35" s="48"/>
-      <c r="E35" s="46" t="s">
+      <c r="C35" s="46"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47"/>
-      <c r="H35" s="47"/>
-      <c r="I35" s="47"/>
-      <c r="J35" s="47"/>
-      <c r="K35" s="48"/>
-      <c r="L35" s="46" t="s">
+      <c r="F35" s="46"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="46"/>
+      <c r="J35" s="46"/>
+      <c r="K35" s="47"/>
+      <c r="L35" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="M35" s="47"/>
-      <c r="N35" s="47"/>
-      <c r="O35" s="47"/>
-      <c r="P35" s="47"/>
-      <c r="Q35" s="47"/>
-      <c r="R35" s="47"/>
-      <c r="S35" s="47"/>
-      <c r="T35" s="48"/>
-      <c r="U35" s="46" t="s">
+      <c r="M35" s="46"/>
+      <c r="N35" s="46"/>
+      <c r="O35" s="46"/>
+      <c r="P35" s="46"/>
+      <c r="Q35" s="46"/>
+      <c r="R35" s="46"/>
+      <c r="S35" s="46"/>
+      <c r="T35" s="47"/>
+      <c r="U35" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="V35" s="47"/>
-      <c r="W35" s="47"/>
-      <c r="X35" s="47"/>
-      <c r="Y35" s="47"/>
-      <c r="Z35" s="48"/>
+      <c r="V35" s="46"/>
+      <c r="W35" s="46"/>
+      <c r="X35" s="46"/>
+      <c r="Y35" s="46"/>
+      <c r="Z35" s="47"/>
     </row>
     <row r="36" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B36" s="52">
+      <c r="B36" s="76">
         <v>0</v>
       </c>
-      <c r="C36" s="53"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="55"/>
-      <c r="F36" s="56"/>
-      <c r="G36" s="56"/>
-      <c r="H36" s="56"/>
-      <c r="I36" s="56"/>
-      <c r="J36" s="56"/>
-      <c r="K36" s="57"/>
-      <c r="L36" s="49"/>
-      <c r="M36" s="50"/>
-      <c r="N36" s="50"/>
-      <c r="O36" s="50"/>
-      <c r="P36" s="50"/>
-      <c r="Q36" s="50"/>
-      <c r="R36" s="50"/>
-      <c r="S36" s="50"/>
-      <c r="T36" s="51"/>
+      <c r="C36" s="77"/>
+      <c r="D36" s="78"/>
+      <c r="E36" s="79"/>
+      <c r="F36" s="80"/>
+      <c r="G36" s="80"/>
+      <c r="H36" s="80"/>
+      <c r="I36" s="80"/>
+      <c r="J36" s="80"/>
+      <c r="K36" s="81"/>
+      <c r="L36" s="73"/>
+      <c r="M36" s="74"/>
+      <c r="N36" s="74"/>
+      <c r="O36" s="74"/>
+      <c r="P36" s="74"/>
+      <c r="Q36" s="74"/>
+      <c r="R36" s="74"/>
+      <c r="S36" s="74"/>
+      <c r="T36" s="75"/>
       <c r="U36" s="19"/>
       <c r="V36" s="19"/>
       <c r="W36" s="19"/>
@@ -16161,15 +16161,15 @@
       <c r="Z37" s="7"/>
     </row>
     <row r="38" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B38" s="46" t="s">
+      <c r="B38" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C38" s="47"/>
-      <c r="D38" s="47"/>
-      <c r="E38" s="47"/>
-      <c r="F38" s="47"/>
-      <c r="G38" s="47"/>
-      <c r="H38" s="48"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="46"/>
+      <c r="F38" s="46"/>
+      <c r="G38" s="46"/>
+      <c r="H38" s="47"/>
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
@@ -16375,20 +16375,22 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="G20:L20"/>
-    <mergeCell ref="G21:L21"/>
-    <mergeCell ref="Q1:X1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="L3:Z3"/>
-    <mergeCell ref="S5:X5"/>
-    <mergeCell ref="Y5:Z6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G23:L23"/>
+    <mergeCell ref="G26:L26"/>
+    <mergeCell ref="G22:L22"/>
+    <mergeCell ref="U35:Z35"/>
+    <mergeCell ref="B38:H38"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="E35:K35"/>
+    <mergeCell ref="L35:T35"/>
+    <mergeCell ref="L36:T36"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:K36"/>
+    <mergeCell ref="G27:L27"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="G32:L32"/>
+    <mergeCell ref="G25:L25"/>
+    <mergeCell ref="G28:L28"/>
     <mergeCell ref="G29:L29"/>
     <mergeCell ref="G30:L30"/>
     <mergeCell ref="M32:Z32"/>
@@ -16405,24 +16407,22 @@
     <mergeCell ref="G18:L18"/>
     <mergeCell ref="F9:Z10"/>
     <mergeCell ref="F11:Z12"/>
-    <mergeCell ref="G23:L23"/>
-    <mergeCell ref="G26:L26"/>
-    <mergeCell ref="G22:L22"/>
-    <mergeCell ref="U35:Z35"/>
-    <mergeCell ref="B38:H38"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="E35:K35"/>
-    <mergeCell ref="L35:T35"/>
-    <mergeCell ref="L36:T36"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:K36"/>
-    <mergeCell ref="G27:L27"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="G32:L32"/>
-    <mergeCell ref="G25:L25"/>
-    <mergeCell ref="G28:L28"/>
+    <mergeCell ref="G20:L20"/>
+    <mergeCell ref="G21:L21"/>
+    <mergeCell ref="Q1:X1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="L3:Z3"/>
+    <mergeCell ref="S5:X5"/>
+    <mergeCell ref="Y5:Z6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:F6"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
